--- a/table/question/question-keji.xlsx
+++ b/table/question/question-keji.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4095" uniqueCount="2394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4200" uniqueCount="2460">
   <si>
     <t>ID</t>
   </si>
@@ -7199,6 +7199,204 @@
   </si>
   <si>
     <t>梁田</t>
+  </si>
+  <si>
+    <t>切尔诺贝利核电站事故发生于：</t>
+  </si>
+  <si>
+    <t>1985年</t>
+  </si>
+  <si>
+    <t>1986年</t>
+  </si>
+  <si>
+    <t>1988年</t>
+  </si>
+  <si>
+    <t>历史上首例被国际核事件分级表评为第七级事件的是：</t>
+  </si>
+  <si>
+    <t>福岛核事故</t>
+  </si>
+  <si>
+    <t>切尔诺贝利核事故</t>
+  </si>
+  <si>
+    <t>通古斯大爆炸</t>
+  </si>
+  <si>
+    <t>托木斯克核事故</t>
+  </si>
+  <si>
+    <t>日本福岛核事故发生于：</t>
+  </si>
+  <si>
+    <t>2008年</t>
+  </si>
+  <si>
+    <t>2009年</t>
+  </si>
+  <si>
+    <t>2010年</t>
+  </si>
+  <si>
+    <t>2011年</t>
+  </si>
+  <si>
+    <t>大亚湾核电站位于我国哪一城市？</t>
+  </si>
+  <si>
+    <t>香港</t>
+  </si>
+  <si>
+    <t>汕头</t>
+  </si>
+  <si>
+    <t>珠海</t>
+  </si>
+  <si>
+    <t>深圳</t>
+  </si>
+  <si>
+    <t>IAEA是哪一国际组织的简称？</t>
+  </si>
+  <si>
+    <t>世界贸易组织</t>
+  </si>
+  <si>
+    <t>国际原子能机构</t>
+  </si>
+  <si>
+    <t>亚太经合组织</t>
+  </si>
+  <si>
+    <t>国际辐射防护协会</t>
+  </si>
+  <si>
+    <t>IRPA是哪一国际组织的简称？</t>
+  </si>
+  <si>
+    <t>世界联合国</t>
+  </si>
+  <si>
+    <t>机器人流程自动化的简称是：</t>
+  </si>
+  <si>
+    <t>RUA</t>
+  </si>
+  <si>
+    <t>ROC</t>
+  </si>
+  <si>
+    <t>RPG</t>
+  </si>
+  <si>
+    <t>RPA</t>
+  </si>
+  <si>
+    <t>ChatGPT的研发公司是：</t>
+  </si>
+  <si>
+    <t>SpaceX</t>
+  </si>
+  <si>
+    <t>TESLA</t>
+  </si>
+  <si>
+    <t>OpenAI</t>
+  </si>
+  <si>
+    <t>支付宝的外文名是：</t>
+  </si>
+  <si>
+    <t>PayPal</t>
+  </si>
+  <si>
+    <t>WePay</t>
+  </si>
+  <si>
+    <t>Alipay</t>
+  </si>
+  <si>
+    <t>VISA</t>
+  </si>
+  <si>
+    <t>下列选项中不属于AIGC范畴的是：</t>
+  </si>
+  <si>
+    <t>人工编写代码</t>
+  </si>
+  <si>
+    <t>ChatGPT</t>
+  </si>
+  <si>
+    <t>AI绘画</t>
+  </si>
+  <si>
+    <t>AI写作</t>
+  </si>
+  <si>
+    <t>薛定谔提出了哪一著名量子力学思维实验？</t>
+  </si>
+  <si>
+    <t>薛定谔的狗</t>
+  </si>
+  <si>
+    <t>薛定谔的猫</t>
+  </si>
+  <si>
+    <t>薛定谔的量子纠缠</t>
+  </si>
+  <si>
+    <t>特斯拉公司主要生产的产品是：</t>
+  </si>
+  <si>
+    <t>食品罐头</t>
+  </si>
+  <si>
+    <t>家电</t>
+  </si>
+  <si>
+    <t>手机</t>
+  </si>
+  <si>
+    <t>电动汽车</t>
+  </si>
+  <si>
+    <t>下列哪一品牌的主要产品是无人机？</t>
+  </si>
+  <si>
+    <t>大疆</t>
+  </si>
+  <si>
+    <t>华为</t>
+  </si>
+  <si>
+    <t>小米</t>
+  </si>
+  <si>
+    <t>一加</t>
+  </si>
+  <si>
+    <t>中国第一辆磁悬浮列车在哪座城市开始运行？</t>
+  </si>
+  <si>
+    <t>南京</t>
+  </si>
+  <si>
+    <t>下列不属于汽车品牌的是：</t>
+  </si>
+  <si>
+    <t>宝马</t>
+  </si>
+  <si>
+    <t>宾利</t>
+  </si>
+  <si>
+    <t>三枪</t>
+  </si>
+  <si>
+    <t>奔驰</t>
   </si>
 </sst>
 </file>
@@ -8345,10 +8543,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O594"/>
+  <dimension ref="A1:O609"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A577" workbookViewId="0">
+      <selection activeCell="A594" sqref="A594:A609"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" customHeight="1"/>
@@ -27383,11 +27581,491 @@
       <c r="H594" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I594" s="24">
+      <c r="I594" s="1">
         <v>40</v>
       </c>
-      <c r="J594" s="24">
+      <c r="J594" s="1">
         <v>60</v>
+      </c>
+    </row>
+    <row r="595" customHeight="1" spans="1:10">
+      <c r="A595" s="1">
+        <v>592</v>
+      </c>
+      <c r="B595" s="1" t="s">
+        <v>2394</v>
+      </c>
+      <c r="C595" s="1" t="s">
+        <v>2395</v>
+      </c>
+      <c r="D595" s="1" t="s">
+        <v>2396</v>
+      </c>
+      <c r="E595" s="1" t="s">
+        <v>1893</v>
+      </c>
+      <c r="F595" s="1" t="s">
+        <v>2397</v>
+      </c>
+      <c r="G595" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H595" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I595" s="1">
+        <v>5</v>
+      </c>
+      <c r="J595" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="596" customHeight="1" spans="1:10">
+      <c r="A596" s="1">
+        <v>593</v>
+      </c>
+      <c r="B596" s="1" t="s">
+        <v>2398</v>
+      </c>
+      <c r="C596" s="1" t="s">
+        <v>2399</v>
+      </c>
+      <c r="D596" s="1" t="s">
+        <v>2400</v>
+      </c>
+      <c r="E596" s="1" t="s">
+        <v>2401</v>
+      </c>
+      <c r="F596" s="1" t="s">
+        <v>2402</v>
+      </c>
+      <c r="G596" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H596" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I596" s="1">
+        <v>10</v>
+      </c>
+      <c r="J596" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="597" customHeight="1" spans="1:10">
+      <c r="A597" s="1">
+        <v>594</v>
+      </c>
+      <c r="B597" s="1" t="s">
+        <v>2403</v>
+      </c>
+      <c r="C597" s="1" t="s">
+        <v>2404</v>
+      </c>
+      <c r="D597" s="1" t="s">
+        <v>2405</v>
+      </c>
+      <c r="E597" s="1" t="s">
+        <v>2406</v>
+      </c>
+      <c r="F597" s="1" t="s">
+        <v>2407</v>
+      </c>
+      <c r="G597" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H597" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I597" s="1">
+        <v>10</v>
+      </c>
+      <c r="J597" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="598" customHeight="1" spans="1:10">
+      <c r="A598" s="1">
+        <v>595</v>
+      </c>
+      <c r="B598" s="1" t="s">
+        <v>2408</v>
+      </c>
+      <c r="C598" s="1" t="s">
+        <v>2409</v>
+      </c>
+      <c r="D598" s="1" t="s">
+        <v>2410</v>
+      </c>
+      <c r="E598" s="1" t="s">
+        <v>2411</v>
+      </c>
+      <c r="F598" s="1" t="s">
+        <v>2412</v>
+      </c>
+      <c r="G598" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H598" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I598" s="1">
+        <v>50</v>
+      </c>
+      <c r="J598" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="599" customHeight="1" spans="1:10">
+      <c r="A599" s="1">
+        <v>596</v>
+      </c>
+      <c r="B599" s="1" t="s">
+        <v>2413</v>
+      </c>
+      <c r="C599" s="1" t="s">
+        <v>2414</v>
+      </c>
+      <c r="D599" s="1" t="s">
+        <v>2415</v>
+      </c>
+      <c r="E599" s="1" t="s">
+        <v>2416</v>
+      </c>
+      <c r="F599" s="1" t="s">
+        <v>2417</v>
+      </c>
+      <c r="G599" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H599" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I599" s="1">
+        <v>30</v>
+      </c>
+      <c r="J599" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="600" customHeight="1" spans="1:10">
+      <c r="A600" s="1">
+        <v>597</v>
+      </c>
+      <c r="B600" s="1" t="s">
+        <v>2418</v>
+      </c>
+      <c r="C600" s="1" t="s">
+        <v>2414</v>
+      </c>
+      <c r="D600" s="1" t="s">
+        <v>2415</v>
+      </c>
+      <c r="E600" s="1" t="s">
+        <v>2417</v>
+      </c>
+      <c r="F600" s="1" t="s">
+        <v>2419</v>
+      </c>
+      <c r="G600" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H600" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I600" s="1">
+        <v>30</v>
+      </c>
+      <c r="J600" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="601" customHeight="1" spans="1:10">
+      <c r="A601" s="1">
+        <v>598</v>
+      </c>
+      <c r="B601" s="1" t="s">
+        <v>2420</v>
+      </c>
+      <c r="C601" s="1" t="s">
+        <v>2421</v>
+      </c>
+      <c r="D601" s="1" t="s">
+        <v>2422</v>
+      </c>
+      <c r="E601" s="1" t="s">
+        <v>2423</v>
+      </c>
+      <c r="F601" s="1" t="s">
+        <v>2424</v>
+      </c>
+      <c r="G601" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H601" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I601" s="1">
+        <v>20</v>
+      </c>
+      <c r="J601" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="602" customHeight="1" spans="1:10">
+      <c r="A602" s="1">
+        <v>599</v>
+      </c>
+      <c r="B602" s="1" t="s">
+        <v>2425</v>
+      </c>
+      <c r="C602" s="1" t="s">
+        <v>2426</v>
+      </c>
+      <c r="D602" s="1" t="s">
+        <v>2427</v>
+      </c>
+      <c r="E602" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="F602" s="1" t="s">
+        <v>2428</v>
+      </c>
+      <c r="G602" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H602" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I602" s="1">
+        <v>5</v>
+      </c>
+      <c r="J602" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="603" customHeight="1" spans="1:10">
+      <c r="A603" s="1">
+        <v>600</v>
+      </c>
+      <c r="B603" s="1" t="s">
+        <v>2429</v>
+      </c>
+      <c r="C603" s="1" t="s">
+        <v>2430</v>
+      </c>
+      <c r="D603" s="1" t="s">
+        <v>2431</v>
+      </c>
+      <c r="E603" s="1" t="s">
+        <v>2432</v>
+      </c>
+      <c r="F603" s="1" t="s">
+        <v>2433</v>
+      </c>
+      <c r="G603" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H603" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I603" s="1">
+        <v>60</v>
+      </c>
+      <c r="J603" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="604" customHeight="1" spans="1:10">
+      <c r="A604" s="1">
+        <v>601</v>
+      </c>
+      <c r="B604" s="1" t="s">
+        <v>2434</v>
+      </c>
+      <c r="C604" s="1" t="s">
+        <v>2435</v>
+      </c>
+      <c r="D604" s="1" t="s">
+        <v>2436</v>
+      </c>
+      <c r="E604" s="1" t="s">
+        <v>2437</v>
+      </c>
+      <c r="F604" s="1" t="s">
+        <v>2438</v>
+      </c>
+      <c r="G604" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H604" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I604" s="1">
+        <v>60</v>
+      </c>
+      <c r="J604" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="605" customHeight="1" spans="1:10">
+      <c r="A605" s="1">
+        <v>602</v>
+      </c>
+      <c r="B605" s="1" t="s">
+        <v>2439</v>
+      </c>
+      <c r="C605" s="1" t="s">
+        <v>2440</v>
+      </c>
+      <c r="D605" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="E605" s="1" t="s">
+        <v>2442</v>
+      </c>
+      <c r="F605" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G605" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H605" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I605" s="1">
+        <v>70</v>
+      </c>
+      <c r="J605" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="606" customHeight="1" spans="1:10">
+      <c r="A606" s="1">
+        <v>603</v>
+      </c>
+      <c r="B606" s="1" t="s">
+        <v>2443</v>
+      </c>
+      <c r="C606" s="1" t="s">
+        <v>2444</v>
+      </c>
+      <c r="D606" s="1" t="s">
+        <v>2445</v>
+      </c>
+      <c r="E606" s="1" t="s">
+        <v>2446</v>
+      </c>
+      <c r="F606" s="1" t="s">
+        <v>2447</v>
+      </c>
+      <c r="G606" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H606" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I606" s="1">
+        <v>70</v>
+      </c>
+      <c r="J606" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="607" customHeight="1" spans="1:10">
+      <c r="A607" s="1">
+        <v>604</v>
+      </c>
+      <c r="B607" s="1" t="s">
+        <v>2448</v>
+      </c>
+      <c r="C607" s="1" t="s">
+        <v>2449</v>
+      </c>
+      <c r="D607" s="1" t="s">
+        <v>2450</v>
+      </c>
+      <c r="E607" s="1" t="s">
+        <v>2451</v>
+      </c>
+      <c r="F607" s="1" t="s">
+        <v>2452</v>
+      </c>
+      <c r="G607" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H607" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I607" s="1">
+        <v>60</v>
+      </c>
+      <c r="J607" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="608" customHeight="1" spans="1:10">
+      <c r="A608" s="1">
+        <v>605</v>
+      </c>
+      <c r="B608" s="1" t="s">
+        <v>2453</v>
+      </c>
+      <c r="C608" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D608" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E608" s="1" t="s">
+        <v>2412</v>
+      </c>
+      <c r="F608" s="1" t="s">
+        <v>2454</v>
+      </c>
+      <c r="G608" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H608" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I608" s="1">
+        <v>50</v>
+      </c>
+      <c r="J608" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="609" customHeight="1" spans="1:10">
+      <c r="A609" s="1">
+        <v>606</v>
+      </c>
+      <c r="B609" s="1" t="s">
+        <v>2455</v>
+      </c>
+      <c r="C609" s="1" t="s">
+        <v>2456</v>
+      </c>
+      <c r="D609" s="1" t="s">
+        <v>2457</v>
+      </c>
+      <c r="E609" s="1" t="s">
+        <v>2458</v>
+      </c>
+      <c r="F609" s="1" t="s">
+        <v>2459</v>
+      </c>
+      <c r="G609" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H609" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I609" s="1">
+        <v>70</v>
+      </c>
+      <c r="J609" s="1">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
